--- a/public/salaries_2018_2.xlsx
+++ b/public/salaries_2018_2.xlsx
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -316,6 +316,15 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +624,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:E20"/>
+      <selection activeCell="D3" sqref="D3:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -662,7 +671,7 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -679,7 +688,7 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -696,7 +705,7 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -713,7 +722,7 @@
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -730,7 +739,7 @@
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -747,7 +756,7 @@
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -764,7 +773,7 @@
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -781,7 +790,7 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -798,7 +807,7 @@
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -815,7 +824,7 @@
       <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -832,7 +841,7 @@
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -849,7 +858,7 @@
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -866,7 +875,7 @@
       <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -883,7 +892,7 @@
       <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -900,7 +909,7 @@
       <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -917,7 +926,7 @@
       <c r="C18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -934,7 +943,7 @@
       <c r="C19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -951,12 +960,42 @@
       <c r="C20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
